--- a/bin/Debug/Template/SDCalcForProduction_Template.xlsx
+++ b/bin/Debug/Template/SDCalcForProduction_Template.xlsx
@@ -5,18 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Works\MachineDeptApp v1.0.0.8\Source Code\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Works\MC-Dept-App\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8B3D3B-C80D-478C-9D2A-813E7009BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCAB55-5E57-4272-AACD-A9B858696236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
   </bookViews>
   <sheets>
     <sheet name="RachhanSystem" sheetId="1" r:id="rId1"/>
+    <sheet name="POSList" sheetId="3" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSList!$A$3:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RachhanSystem!$A$5:$C$5</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="SK_A20">[1]Memo!$J$2+[1]Memo!$J$2:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>លេខកូដ</t>
   </si>
@@ -49,6 +56,49 @@
   </si>
   <si>
     <t>ទិន្នន័យវេរទៅផលិត</t>
+  </si>
+  <si>
+    <t>SEMI CODE</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Semi Name</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>POS( C )</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>Pin Assignment</t>
+  </si>
+  <si>
+    <t>Wire/Tube Color</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>លេខកូដ Semi</t>
+  </si>
+  <si>
+    <t>ឈ្មោះ Semi</t>
+  </si>
+  <si>
+    <t>POS( C )</t>
+  </si>
+  <si>
+    <t>ភីន</t>
+  </si>
+  <si>
+    <t>ពណ៌ខ្សែភ្លើង</t>
+  </si>
+  <si>
+    <t>ប្រវែង</t>
   </si>
 </sst>
 </file>
@@ -59,7 +109,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +142,45 @@
       <color theme="1"/>
       <name val="Khmer OS Battambang"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Khmer OS Battambang"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Khmer OS Battambang"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,8 +193,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -220,11 +319,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,20 +404,198 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{AD6CEE88-2E7A-43E7-8791-B21BC8C3A6F0}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{0C4DE3D2-7F48-4CEA-A796-6055F961D19F}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF800080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF87CEEB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA500"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFADFF2F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA52A2A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -603,6 +934,35 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Memo"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>SK-A20 (A)</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="J3" t="str">
+            <v>SK-A20 (B)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -911,35 +1271,35 @@
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" ht="40.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="str">
         <f>IF(A2&lt;&gt;""," ៖ "&amp;TEXT(A2,"dd-MM-yyyy")," ៖ ")</f>
         <v xml:space="preserve"> ៖ </v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="str">
         <f>IF(A3&lt;&gt;""," ៖ "&amp;A3," ៖ ")</f>
         <v xml:space="preserve"> ៖ </v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3" ht="23.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:3" ht="24" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -961,10 +1321,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:3" ht="23.25">
+      <c r="A6" s="10"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:C5" xr:uid="{7D00B6B8-4ABD-4A98-AC4F-01406F7FAE6A}"/>
@@ -979,4 +1339,144 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3D4DE8-B852-41EA-96A7-EF1788C15BF6}">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AP4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="19.5">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="27" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="24"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:G3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="containsText" dxfId="12" priority="13" stopIfTrue="1" operator="containsText" text="RED">
+      <formula>NOT(ISERROR(SEARCH("RED",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text="BLK">
+      <formula>NOT(ISERROR(SEARCH("BLK",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" stopIfTrue="1" operator="containsText" text="PINK">
+      <formula>NOT(ISERROR(SEARCH("PINK",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="16" stopIfTrue="1" operator="containsText" text="YEL">
+      <formula>NOT(ISERROR(SEARCH("YEL",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="17" stopIfTrue="1" operator="containsText" text="BLU">
+      <formula>NOT(ISERROR(SEARCH("BLU",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="18" stopIfTrue="1" operator="containsText" text="BRN">
+      <formula>NOT(ISERROR(SEARCH("BRN",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="19" stopIfTrue="1" operator="containsText" text="G/Y">
+      <formula>NOT(ISERROR(SEARCH("G/Y",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="20" stopIfTrue="1" operator="containsText" text="GRN">
+      <formula>NOT(ISERROR(SEARCH("GRN",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="21" stopIfTrue="1" operator="containsText" text="GRY">
+      <formula>NOT(ISERROR(SEARCH("GRY",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="22" stopIfTrue="1" operator="containsText" text="ORG">
+      <formula>NOT(ISERROR(SEARCH("ORG",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="23" stopIfTrue="1" operator="containsText" text="PNK">
+      <formula>NOT(ISERROR(SEARCH("PNK",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="24" stopIfTrue="1" operator="containsText" text="SKY">
+      <formula>NOT(ISERROR(SEARCH("SKY",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="25" stopIfTrue="1" operator="containsText" text="VLT">
+      <formula>NOT(ISERROR(SEARCH("VLT",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.13" header="0.3" footer="0"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/bin/Debug/Template/SDCalcForProduction_Template.xlsx
+++ b/bin/Debug/Template/SDCalcForProduction_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Works\MC-Dept-App\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CCAB55-5E57-4272-AACD-A9B858696236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C45EB-3E38-4246-9D22-5B16197BF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
   </bookViews>
   <sheets>
     <sheet name="RachhanSystem" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSList!$A$3:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RachhanSystem!$A$5:$C$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POSList!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RachhanSystem!$A$6:$C$6</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="SK_A20">[1]Memo!$J$2+[1]Memo!$J$2:$J$3</definedName>
   </definedNames>
@@ -109,7 +109,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="0000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="BC39"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -377,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,53 +423,59 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -610,18 +629,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -636,7 +655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="438149"/>
+          <a:off x="0" y="1057274"/>
           <a:ext cx="657224" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -690,20 +709,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>438149</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>276224</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="$B$2">
+    <xdr:sp macro="" textlink="$B$3">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
@@ -716,7 +735,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="809624" y="438149"/>
+          <a:off x="809624" y="1057274"/>
           <a:ext cx="1590675" cy="352425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -773,13 +792,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>266699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -853,16 +872,16 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>809624</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>266699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="$B$3">
+    <xdr:sp macro="" textlink="$B$4">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
@@ -1264,11 +1283,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1279,60 +1298,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="str">
-        <f>IF(A2&lt;&gt;""," ៖ "&amp;TEXT(A2,"dd-MM-yyyy")," ៖ ")</f>
-        <v xml:space="preserve"> ៖ </v>
-      </c>
+    <row r="2" spans="1:3" ht="46.5" customHeight="1">
+      <c r="A2" s="28" t="str">
+        <f>IF($A$4&lt;&gt;"","*"&amp;$A$4&amp;"*","")</f>
+        <v/>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
     </row>
-    <row r="3" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:3" ht="26.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="str">
-        <f>IF(A3&lt;&gt;""," ៖ "&amp;A3," ៖ ")</f>
+        <f>IF(A3&lt;&gt;""," ៖ "&amp;TEXT(A3,"dd-MM-yyyy")," ៖ ")</f>
         <v xml:space="preserve"> ៖ </v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="23.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="str">
+        <f>IF(A4&lt;&gt;""," ៖ "&amp;A4," ៖ ")</f>
+        <v xml:space="preserve"> ៖ </v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.25">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="24" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:3" ht="24" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="23.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
+    <row r="7" spans="1:3" ht="23.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:C5" xr:uid="{7D00B6B8-4ABD-4A98-AC4F-01406F7FAE6A}"/>
-  <mergeCells count="1">
+  <autoFilter ref="A6:C6" xr:uid="{7D00B6B8-4ABD-4A98-AC4F-01406F7FAE6A}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.1" right="0.1" top="0.5" bottom="0.5" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"-,Bold Italic"&amp;14&amp;K04+000MARUNIX (CAMBODIA) CO.,LTD</oddHeader>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
@@ -1347,130 +1375,145 @@
     <tabColor theme="5" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="12.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="29" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+    <row r="1" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A1" s="29" t="str">
+        <f>IF(RachhanSystem!A4&lt;&gt;"",RachhanSystem!A4,"")</f>
+        <v/>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="19.5">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" s="18" customFormat="1" ht="19.5">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="19" customFormat="1" ht="20.25" thickBot="1">
-      <c r="A3" s="20" t="s">
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="20.25" thickBot="1">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="27" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="24"/>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G3" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <conditionalFormatting sqref="E2:E4">
+  <autoFilter ref="A4:G4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:E5">
     <cfRule type="containsText" dxfId="12" priority="13" stopIfTrue="1" operator="containsText" text="RED">
-      <formula>NOT(ISERROR(SEARCH("RED",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("RED",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="11" priority="14" stopIfTrue="1" operator="containsText" text="BLK">
-      <formula>NOT(ISERROR(SEARCH("BLK",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BLK",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="15" stopIfTrue="1" operator="containsText" text="PINK">
-      <formula>NOT(ISERROR(SEARCH("PINK",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PINK",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="16" stopIfTrue="1" operator="containsText" text="YEL">
-      <formula>NOT(ISERROR(SEARCH("YEL",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("YEL",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="17" stopIfTrue="1" operator="containsText" text="BLU">
-      <formula>NOT(ISERROR(SEARCH("BLU",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BLU",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="7" priority="18" stopIfTrue="1" operator="containsText" text="BRN">
-      <formula>NOT(ISERROR(SEARCH("BRN",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BRN",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="19" stopIfTrue="1" operator="containsText" text="G/Y">
-      <formula>NOT(ISERROR(SEARCH("G/Y",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("G/Y",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="20" stopIfTrue="1" operator="containsText" text="GRN">
-      <formula>NOT(ISERROR(SEARCH("GRN",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("GRN",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="21" stopIfTrue="1" operator="containsText" text="GRY">
-      <formula>NOT(ISERROR(SEARCH("GRY",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("GRY",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="22" stopIfTrue="1" operator="containsText" text="ORG">
-      <formula>NOT(ISERROR(SEARCH("ORG",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ORG",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="23" stopIfTrue="1" operator="containsText" text="PNK">
-      <formula>NOT(ISERROR(SEARCH("PNK",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("PNK",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="24" stopIfTrue="1" operator="containsText" text="SKY">
-      <formula>NOT(ISERROR(SEARCH("SKY",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("SKY",E3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="25" stopIfTrue="1" operator="containsText" text="VLT">
-      <formula>NOT(ISERROR(SEARCH("VLT",E2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("VLT",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.13" header="0.3" footer="0"/>

--- a/bin/Debug/Template/SDCalcForProduction_Template.xlsx
+++ b/bin/Debug/Template/SDCalcForProduction_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Works\MC-Dept-App\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C45EB-3E38-4246-9D22-5B16197BF9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2729454-697D-4F68-A870-E0E0FAE985FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
   </bookViews>
   <sheets>
     <sheet name="RachhanSystem" sheetId="1" r:id="rId1"/>
@@ -950,6 +950,157 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1343024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2362199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB09916-810F-9B62-9780-11DFCC9F0441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600324" y="1057274"/>
+          <a:ext cx="1019175" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t>ឈ្មោះម៉ាស៊ីន</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2324101</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>542924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1752601</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="$C$3">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF070A6-9C6A-8FAF-C3DB-95288E297B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581401" y="1057274"/>
+          <a:ext cx="3162300" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:fld id="{F5706A2C-8DD9-4CEE-AABC-585E317E0543}" type="TxLink">
+            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:ea typeface="Calibri"/>
+              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:rPr>
+            <a:t> ៖ </a:t>
+          </a:fld>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1285,9 +1436,9 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1318,6 +1469,10 @@
         <f>IF(A3&lt;&gt;""," ៖ "&amp;TEXT(A3,"dd-MM-yyyy")," ៖ ")</f>
         <v xml:space="preserve"> ៖ </v>
       </c>
+      <c r="C3" s="2" t="str">
+        <f>IF(C4&lt;&gt;""," ៖ "&amp;C4," ៖ ")</f>
+        <v xml:space="preserve"> ៖ </v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="26.25" customHeight="1" thickBot="1">
       <c r="A4" s="1"/>
@@ -1325,6 +1480,7 @@
         <f>IF(A4&lt;&gt;""," ៖ "&amp;A4," ៖ ")</f>
         <v xml:space="preserve"> ៖ </v>
       </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="23.25">
       <c r="A5" s="3" t="s">
@@ -1377,9 +1533,9 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G1"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1396,7 +1552,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1">
       <c r="A1" s="29" t="str">
-        <f>IF(RachhanSystem!A4&lt;&gt;"",RachhanSystem!A4,"")</f>
+        <f>IF(RachhanSystem!A4&lt;&gt;"",RachhanSystem!A4&amp;"( "&amp;RachhanSystem!C4&amp;" )","")</f>
         <v/>
       </c>
       <c r="B1" s="29"/>

--- a/bin/Debug/Template/SDCalcForProduction_Template.xlsx
+++ b/bin/Debug/Template/SDCalcForProduction_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Current Works\MC-Dept-App\bin\Debug\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Project\My C# project\MC-Dept-App\bin\Debug\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2729454-697D-4F68-A870-E0E0FAE985FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383AFE73-542F-443B-BE54-D56FA012049B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
+    <workbookView xWindow="3120" yWindow="4830" windowWidth="21600" windowHeight="8670" xr2:uid="{14D0DD05-F513-4696-888A-6119A7C86A21}"/>
   </bookViews>
   <sheets>
     <sheet name="RachhanSystem" sheetId="1" r:id="rId1"/>
@@ -105,9 +105,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -392,7 +391,7 @@
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,7 +416,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,90 +628,10 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3112C1-0C16-D850-BC67-C8212FB0E346}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1057274"/>
-          <a:ext cx="657224" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>ថ្ងៃខែឆ្នាំ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>809624</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>542924</xdr:rowOff>
     </xdr:from>
@@ -722,70 +641,155 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="$B$3">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="Group 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336FD7C9-0651-6E79-C5A2-AEC19A8351F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB63506A-6963-11F7-75A2-D621309D5B2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="809624" y="1057274"/>
-          <a:ext cx="1590675" cy="352425"/>
+          <a:off x="0" y="1057274"/>
+          <a:ext cx="2400299" cy="352425"/>
+          <a:chOff x="0" y="1057274"/>
+          <a:chExt cx="2400299" cy="352425"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Rectangle 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3112C1-0C16-D850-BC67-C8212FB0E346}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="1057274"/>
+            <a:ext cx="657224" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:fld id="{5BFEC79A-D781-4FFE-ADE4-6652A4FEFB2D}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>ថ្ងៃខែឆ្នាំ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" u="sng">
               <a:solidFill>
-                <a:srgbClr val="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$B$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336FD7C9-0651-6E79-C5A2-AEC19A8351F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809624" y="1057274"/>
+            <a:ext cx="1590675" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr algn="l"/>
-            <a:t> ៖ </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            <a:fld id="{5BFEC79A-D781-4FFE-ADE4-6652A4FEFB2D}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:pPr algn="l"/>
+              <a:t> ៖ </a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -796,237 +800,169 @@
       <xdr:rowOff>266699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>285749</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectangle 3">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0CADE9-6398-3CFA-406C-A8D5D38F56B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D5C860-C805-8B70-A156-4A0389639807}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="781049"/>
-          <a:ext cx="990600" cy="352425"/>
+          <a:off x="0" y="1371599"/>
+          <a:ext cx="2400299" cy="352425"/>
+          <a:chOff x="0" y="1371599"/>
+          <a:chExt cx="2400299" cy="352425"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0CADE9-6398-3CFA-406C-A8D5D38F56B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="1371599"/>
+            <a:ext cx="990600" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>លេខឯកសារ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="0" u="sng">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
               <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>លេខឯកសារ</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1200" b="0" u="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$B$4">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57397F-F4CC-9E1D-5296-80163A18C712}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="809624" y="1371599"/>
+            <a:ext cx="1590675" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{A7B32734-7CBB-46CD-AA25-3F541106F37E}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:pPr algn="l"/>
+              <a:t> ៖ </a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>809624</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>285749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="$B$4">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE57397F-F4CC-9E1D-5296-80163A18C712}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="809624" y="781049"/>
-          <a:ext cx="1590675" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:fld id="{A7B32734-7CBB-46CD-AA25-3F541106F37E}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:pPr algn="l"/>
-            <a:t> ៖ </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1343024</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>542924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2362199</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>304799</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Rectangle 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB09916-810F-9B62-9780-11DFCC9F0441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2600324" y="1057274"/>
-          <a:ext cx="1019175" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-              <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t>ឈ្មោះម៉ាស៊ីន</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2324101</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>542924</xdr:rowOff>
     </xdr:from>
@@ -1036,69 +972,148 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>304799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="$C$3">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF070A6-9C6A-8FAF-C3DB-95288E297B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{550B9810-6FC2-0372-F2F7-69DD2777B312}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3581401" y="1057274"/>
-          <a:ext cx="3162300" cy="352425"/>
+          <a:off x="2600324" y="1057274"/>
+          <a:ext cx="4143377" cy="352425"/>
+          <a:chOff x="2600324" y="1057274"/>
+          <a:chExt cx="4143377" cy="352425"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEB09916-810F-9B62-9780-11DFCC9F0441}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2600324" y="1057274"/>
+            <a:ext cx="1019175" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
           <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:fld id="{F5706A2C-8DD9-4CEE-AABC-585E317E0543}" type="TxLink">
-            <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="km-KH" sz="1200" b="0" u="sng">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>ឈ្មោះម៉ាស៊ីន</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="$C$3">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF070A6-9C6A-8FAF-C3DB-95288E297B24}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3581401" y="1057274"/>
+            <a:ext cx="3162300" cy="352425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:fld id="{F5706A2C-8DD9-4CEE-AABC-585E317E0543}" type="TxLink">
+              <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+                <a:ea typeface="Calibri"/>
+                <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:pPr algn="l"/>
+              <a:t> ៖ </a:t>
+            </a:fld>
+            <a:endParaRPr lang="en-US" sz="1600">
               <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-              <a:ea typeface="Calibri"/>
               <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            </a:rPr>
-            <a:t> ៖ </a:t>
-          </a:fld>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:latin typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-            <a:cs typeface="Khmer OS Battambang" panose="02000500000000020004" pitchFamily="2" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1438,7 +1453,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1535,7 +1550,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
